--- a/import-server/cda_basismodul/CDA Beispielpatienten.xlsx
+++ b/import-server/cda_basismodul/CDA Beispielpatienten.xlsx
@@ -781,13 +781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CG7" sqref="CG7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -1148,9 +1151,7 @@
       <c r="AG2" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2" t="s">
         <v>93</v>
       </c>
@@ -1368,9 +1369,7 @@
       <c r="AG3" s="2">
         <v>35.5</v>
       </c>
-      <c r="AH3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2" t="s">
         <v>93</v>
       </c>
@@ -1586,9 +1585,7 @@
       <c r="AG4" s="2">
         <v>35.700000000000003</v>
       </c>
-      <c r="AH4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2" t="s">
         <v>93</v>
       </c>

--- a/import-server/cda_basismodul/CDA Beispielpatienten.xlsx
+++ b/import-server/cda_basismodul/CDA Beispielpatienten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="136">
   <si>
     <t>Patient</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>S27.1</t>
+  </si>
+  <si>
+    <t>Dauer</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -478,6 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -779,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ10"/>
+  <dimension ref="A1:CK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,11 +795,11 @@
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,232 +840,235 @@
         <v>7</v>
       </c>
       <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>112</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>64</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>65</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>67</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>68</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>69</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>70</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>71</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>72</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>73</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>74</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>75</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>78</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>79</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>80</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>81</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>82</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>83</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -1095,37 +1102,37 @@
       <c r="M2" s="4">
         <v>0.625</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="9">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
         <v>12</v>
       </c>
-      <c r="V2" s="2">
+      <c r="W2" s="2">
         <v>94</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="2">
         <v>85</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
         <v>131</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
@@ -1134,146 +1141,149 @@
         <v>1</v>
       </c>
       <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2">
         <v>3</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM2" s="4">
         <v>0.71180555555555547</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO2" s="4">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="4">
         <v>0.71388888888888891</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="AQ2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR2" s="4">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="4">
         <v>0.72569444444444453</v>
       </c>
-      <c r="AS2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="AT2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU2" s="4">
+        <v>87</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV2" s="4">
         <v>0.71527777777777779</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="AW2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="2"/>
+      <c r="AX2" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="AY2" s="2"/>
-      <c r="AZ2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA2" s="5">
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" s="5">
         <v>0.71875</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="BC2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BD2" s="2"/>
+      <c r="BD2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BE2" s="2"/>
-      <c r="BF2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BH2" s="2"/>
-      <c r="BI2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BK2" s="2"/>
-      <c r="BL2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BN2" s="2"/>
-      <c r="BO2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP2" s="4">
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ2" s="4">
         <v>0.73263888888888884</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="BR2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BS2" s="2"/>
+      <c r="BS2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BT2" s="2"/>
-      <c r="BU2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BW2" s="2"/>
-      <c r="BX2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BZ2" s="2"/>
-      <c r="CA2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="CC2" s="2"/>
-      <c r="CD2" s="2" t="s">
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="CE2" s="2" t="s">
+      <c r="CF2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="CF2" s="2"/>
       <c r="CG2" s="2"/>
       <c r="CH2" s="2"/>
-      <c r="CI2" s="4">
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="4">
         <v>0.86458333333333337</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CK2" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
@@ -1313,37 +1323,37 @@
       <c r="M3" s="4">
         <v>0.30138888888888887</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="9">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2">
         <v>14</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>98</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>105</v>
       </c>
-      <c r="X3" s="2">
-        <v>95</v>
-      </c>
       <c r="Y3" s="2">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
@@ -1352,152 +1362,155 @@
         <v>1</v>
       </c>
       <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
         <v>3</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AH3" s="2">
         <v>35.5</v>
       </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AK3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM3" s="4">
         <v>0.34722222222222227</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AN3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO3" s="4">
+        <v>87</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP3" s="4">
         <v>0.34722222222222227</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AQ3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" s="2"/>
+      <c r="AR3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX3" s="4">
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY3" s="4">
         <v>0.34027777777777773</v>
       </c>
-      <c r="AY3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AZ3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA3" s="4">
+        <v>87</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" s="4">
         <v>0.34027777777777773</v>
       </c>
-      <c r="BB3" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="BC3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BD3" s="4">
+      <c r="BD3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE3" s="4">
         <v>0.35069444444444442</v>
       </c>
-      <c r="BE3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="BF3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BG3" s="2"/>
+      <c r="BG3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BH3" s="2"/>
-      <c r="BI3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ3" s="4">
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK3" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="BK3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="BL3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BM3" s="2"/>
+      <c r="BM3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BN3" s="2"/>
-      <c r="BO3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BQ3" s="2"/>
-      <c r="BR3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BT3" s="2"/>
-      <c r="BU3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BW3" s="2"/>
-      <c r="BX3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BZ3" s="2"/>
-      <c r="CA3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="CC3" s="2"/>
-      <c r="CD3" s="2" t="s">
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="CI3" s="4">
+      <c r="CJ3" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
@@ -1531,36 +1544,36 @@
       <c r="M4" s="4">
         <v>0.83263888888888893</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="9">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>12</v>
       </c>
-      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
@@ -1568,130 +1581,133 @@
         <v>1</v>
       </c>
       <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
         <v>3</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" s="2">
         <v>35.700000000000003</v>
       </c>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL4" s="2"/>
+      <c r="AL4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO4" s="4">
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP4" s="4">
         <v>0.87291666666666667</v>
       </c>
-      <c r="AP4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AQ4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AR4" s="2"/>
+      <c r="AR4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA4" s="4">
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" s="4">
         <v>0.87152777777777779</v>
       </c>
-      <c r="BB4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="BC4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BD4" s="2"/>
+      <c r="BD4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BE4" s="2"/>
-      <c r="BF4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BH4" s="2"/>
-      <c r="BI4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BK4" s="2"/>
-      <c r="BL4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BN4" s="2"/>
-      <c r="BO4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BW4" s="2"/>
-      <c r="BX4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="BZ4" s="2"/>
-      <c r="CA4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="CC4" s="2"/>
-      <c r="CD4" s="2" t="s">
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="CE4" s="2" t="s">
+      <c r="CF4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CF4" s="2"/>
       <c r="CG4" s="2"/>
       <c r="CH4" s="2"/>
-      <c r="CI4" s="4">
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="4">
         <v>0.88680555555555562</v>
       </c>
-      <c r="CJ4" s="2" t="s">
+      <c r="CK4" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>99</v>
       </c>
@@ -1732,176 +1748,179 @@
         <v>0.375</v>
       </c>
       <c r="N5" s="6">
+        <v>7</v>
+      </c>
+      <c r="O5" s="6">
         <v>3</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
         <v>20</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <v>94</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <v>145</v>
       </c>
-      <c r="X5" s="6">
-        <v>95</v>
-      </c>
       <c r="Y5" s="6">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="6">
         <v>4</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>5</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AB5" s="6">
         <v>6</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AC5" s="6">
         <v>15</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="AD5" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="6">
         <v>38.9</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AI5" s="6">
         <v>2</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AK5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM5" s="8">
         <v>0.69444444444444453</v>
       </c>
-      <c r="AM5" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="AN5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO5" s="8">
+        <v>87</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP5" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="AP5" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="AQ5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR5" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AS5" s="6"/>
-      <c r="AT5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU5" s="8">
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV5" s="8">
         <v>0.69097222222222221</v>
       </c>
-      <c r="AV5" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="AW5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX5" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BB5" s="6"/>
-      <c r="BC5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BE5" s="6"/>
-      <c r="BF5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BH5" s="6"/>
-      <c r="BI5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BK5" s="6"/>
-      <c r="BL5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BN5" s="6"/>
-      <c r="BO5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP5" s="8">
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ5" s="8">
         <v>0.71875</v>
       </c>
-      <c r="BQ5" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="BR5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BS5" s="6"/>
+      <c r="BS5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BT5" s="6"/>
-      <c r="BU5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BW5" s="6"/>
-      <c r="BX5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BZ5" s="6"/>
-      <c r="CA5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="CC5" s="6"/>
-      <c r="CD5" s="6" t="s">
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CE5" s="6"/>
       <c r="CF5" s="6"/>
       <c r="CG5" s="6"/>
       <c r="CH5" s="6"/>
-      <c r="CI5" s="8">
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="8">
         <v>0.77986111111111101</v>
       </c>
-      <c r="CJ5" s="6" t="s">
+      <c r="CK5" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>100</v>
       </c>
@@ -1936,164 +1955,167 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
         <v>4</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="6"/>
+      <c r="T6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6">
+      <c r="U6" s="6"/>
+      <c r="V6" s="6">
         <v>15</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>98</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>155</v>
       </c>
-      <c r="X6" s="6">
-        <v>87</v>
-      </c>
       <c r="Y6" s="6">
+        <v>87</v>
+      </c>
+      <c r="Z6" s="6">
         <v>4</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>5</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AB6" s="6">
         <v>6</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AC6" s="6">
         <v>15</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="6">
         <v>37.200000000000003</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AI6" s="6">
         <v>3</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="AJ6" s="6" t="s">
         <v>119</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL6" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AM6" s="6"/>
-      <c r="AN6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AP6" s="6"/>
-      <c r="AQ6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AS6" s="6"/>
-      <c r="AT6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AV6" s="6"/>
-      <c r="AW6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AY6" s="6"/>
-      <c r="AZ6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BB6" s="6"/>
-      <c r="BC6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BE6" s="6"/>
-      <c r="BF6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BH6" s="6"/>
-      <c r="BI6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BK6" s="6"/>
-      <c r="BL6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BN6" s="6"/>
-      <c r="BO6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BQ6" s="6"/>
-      <c r="BR6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BT6" s="6"/>
-      <c r="BU6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV6" s="8">
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW6" s="8">
         <v>0.79861111111111116</v>
       </c>
-      <c r="BW6" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="BX6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY6" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="BY6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BZ6" s="6"/>
-      <c r="CA6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="CC6" s="6"/>
-      <c r="CD6" s="6" t="s">
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="CE6" s="6"/>
       <c r="CF6" s="6"/>
       <c r="CG6" s="6"/>
       <c r="CH6" s="6"/>
-      <c r="CI6" s="8">
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="CJ6" s="6" t="s">
+      <c r="CK6" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>101</v>
       </c>
@@ -2134,170 +2156,173 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="6">
+        <v>12</v>
+      </c>
+      <c r="O7" s="6">
         <v>3</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
+      <c r="U7" s="6"/>
+      <c r="V7" s="6">
         <v>18</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>97</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>161</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>65</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <v>4</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>5</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <v>6</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AC7" s="6">
         <v>15</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="AD7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="6">
         <v>36.5</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AI7" s="6">
         <v>6</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="AJ7" s="6" t="s">
         <v>119</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL7" s="8">
+        <v>119</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM7" s="8">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="AM7" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="AN7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AO7" s="6"/>
+      <c r="AO7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AP7" s="6"/>
-      <c r="AQ7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AV7" s="6"/>
-      <c r="AW7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX7" s="8">
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY7" s="8">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="AY7" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="AZ7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BA7" s="6"/>
+      <c r="BA7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BB7" s="6"/>
-      <c r="BC7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BE7" s="6"/>
-      <c r="BF7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BH7" s="6"/>
-      <c r="BI7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BK7" s="6"/>
-      <c r="BL7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BN7" s="6"/>
-      <c r="BO7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BQ7" s="6"/>
-      <c r="BR7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BT7" s="6"/>
-      <c r="BU7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BW7" s="6"/>
-      <c r="BX7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="BZ7" s="6"/>
-      <c r="CA7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="CC7" s="6"/>
-      <c r="CD7" s="6" t="s">
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="CE7" s="6" t="s">
+      <c r="CF7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="CF7" s="6"/>
       <c r="CG7" s="6"/>
       <c r="CH7" s="6"/>
-      <c r="CI7" s="8">
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="8">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="CJ7" s="6" t="s">
+      <c r="CK7" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2305,7 +2330,7 @@
         <v>42193</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2313,7 +2338,7 @@
         <v>42193</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
